--- a/ivsAttributes.xlsx
+++ b/ivsAttributes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -183,6 +183,24 @@
   </si>
   <si>
     <t>filter_var()</t>
+  </si>
+  <si>
+    <t>checkMagicQuotes, checkMySQLRealEscapeString, checkHTMLEntities, checkHTMLSpecialChars</t>
+  </si>
+  <si>
+    <t>FILTER_SANITIZE_MAGIC_QUOTES (filters single quote, double quote), htmlentities, FILTER_SANITIZE_STRING, FILTER_SANITIZE_EMAIL</t>
+  </si>
+  <si>
+    <t>Backslash</t>
+  </si>
+  <si>
+    <t>Function that filters backslash (\)</t>
+  </si>
+  <si>
+    <t>checkAddSlashes</t>
+  </si>
+  <si>
+    <t>stripslashes</t>
   </si>
 </sst>
 </file>
@@ -507,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,8 +720,14 @@
       <c r="B16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -711,7 +735,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -720,6 +744,20 @@
       </c>
       <c r="C18" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
